--- a/INTLINE/data/134/DEUSTATIS/National accounts - Exports and imports years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Exports and imports years.xlsx
@@ -177,7 +177,7 @@
     <t xml:space="preserve">  index".</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:38:52</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:45:29</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1330,7 @@
         <v>1462.09</v>
       </c>
       <c r="AG6" t="n" s="10">
-        <v>1694.583</v>
+        <v>1690.567</v>
       </c>
     </row>
     <row r="7">
@@ -1431,7 +1431,7 @@
         <v>1190.094</v>
       </c>
       <c r="AG7" t="n" s="10">
-        <v>1369.96</v>
+        <v>1370.846</v>
       </c>
     </row>
     <row r="8">
@@ -1532,7 +1532,7 @@
         <v>271.996</v>
       </c>
       <c r="AG8" t="n" s="10">
-        <v>324.623</v>
+        <v>319.721</v>
       </c>
     </row>
     <row r="9">
@@ -1633,7 +1633,7 @@
         <v>1269.289</v>
       </c>
       <c r="AG9" t="n" s="10">
-        <v>1497.044</v>
+        <v>1498.213</v>
       </c>
     </row>
     <row r="10">
@@ -1734,7 +1734,7 @@
         <v>1000.858</v>
       </c>
       <c r="AG10" t="n" s="10">
-        <v>1186.469</v>
+        <v>1180.938</v>
       </c>
     </row>
     <row r="11">
@@ -1835,7 +1835,7 @@
         <v>268.431</v>
       </c>
       <c r="AG11" t="n" s="10">
-        <v>310.575</v>
+        <v>317.275</v>
       </c>
     </row>
     <row r="12">
@@ -1936,7 +1936,7 @@
         <v>192.801</v>
       </c>
       <c r="AG12" t="n" s="10">
-        <v>197.539</v>
+        <v>192.354</v>
       </c>
     </row>
     <row r="13" ht="33.75" customHeight="true">
@@ -2042,7 +2042,7 @@
         <v>100.81</v>
       </c>
       <c r="AG14" t="n" s="10">
-        <v>110.82</v>
+        <v>110.51</v>
       </c>
     </row>
     <row r="15">
@@ -2143,7 +2143,7 @@
         <v>101.03</v>
       </c>
       <c r="AG15" t="n" s="10">
-        <v>111.24</v>
+        <v>111.27</v>
       </c>
     </row>
     <row r="16">
@@ -2244,7 +2244,7 @@
         <v>99.9</v>
       </c>
       <c r="AG16" t="n" s="10">
-        <v>109.09</v>
+        <v>107.31</v>
       </c>
     </row>
     <row r="17">
@@ -2345,7 +2345,7 @@
         <v>107.41</v>
       </c>
       <c r="AG17" t="n" s="10">
-        <v>117.35</v>
+        <v>117.18</v>
       </c>
     </row>
     <row r="18">
@@ -2446,7 +2446,7 @@
         <v>111.85</v>
       </c>
       <c r="AG18" t="n" s="10">
-        <v>121.49</v>
+        <v>120.94</v>
       </c>
     </row>
     <row r="19">
@@ -2547,7 +2547,7 @@
         <v>92.94</v>
       </c>
       <c r="AG19" t="n" s="10">
-        <v>103.74</v>
+        <v>104.76</v>
       </c>
     </row>
     <row r="20">
@@ -2754,7 +2754,7 @@
         <v>1431.407</v>
       </c>
       <c r="AG22" t="n" s="10">
-        <v>1573.54</v>
+        <v>1569.138</v>
       </c>
     </row>
     <row r="23">
@@ -2855,7 +2855,7 @@
         <v>1178.609</v>
       </c>
       <c r="AG23" t="n" s="10">
-        <v>1297.718</v>
+        <v>1298.068</v>
       </c>
     </row>
     <row r="24">
@@ -2956,7 +2956,7 @@
         <v>253.06</v>
       </c>
       <c r="AG24" t="n" s="10">
-        <v>276.339</v>
+        <v>271.83</v>
       </c>
     </row>
     <row r="25">
@@ -3057,7 +3057,7 @@
         <v>1278.243</v>
       </c>
       <c r="AG25" t="n" s="10">
-        <v>1396.535</v>
+        <v>1394.512</v>
       </c>
     </row>
     <row r="26">
@@ -3158,7 +3158,7 @@
         <v>1027.015</v>
       </c>
       <c r="AG26" t="n" s="10">
-        <v>1115.53</v>
+        <v>1110.48</v>
       </c>
     </row>
     <row r="27">
@@ -3259,7 +3259,7 @@
         <v>252.66</v>
       </c>
       <c r="AG27" t="n" s="10">
-        <v>282.02</v>
+        <v>284.793</v>
       </c>
     </row>
     <row r="28">
@@ -3466,7 +3466,7 @@
         <v>1468.411</v>
       </c>
       <c r="AG30" t="n" s="10">
-        <v>1607.34</v>
+        <v>1602.897</v>
       </c>
     </row>
     <row r="31">
@@ -3567,7 +3567,7 @@
         <v>1198.379</v>
       </c>
       <c r="AG31" t="n" s="10">
-        <v>1310.33</v>
+        <v>1310.745</v>
       </c>
     </row>
     <row r="32">
@@ -3668,7 +3668,7 @@
         <v>270.032</v>
       </c>
       <c r="AG32" t="n" s="10">
-        <v>297.01</v>
+        <v>292.152</v>
       </c>
     </row>
     <row r="33">
@@ -3769,7 +3769,7 @@
         <v>1301.048</v>
       </c>
       <c r="AG33" t="n" s="10">
-        <v>1386.789</v>
+        <v>1384.746</v>
       </c>
     </row>
     <row r="34">
@@ -3870,7 +3870,7 @@
         <v>1036.9</v>
       </c>
       <c r="AG34" t="n" s="10">
-        <v>1087.158</v>
+        <v>1082.191</v>
       </c>
     </row>
     <row r="35">
@@ -3971,7 +3971,7 @@
         <v>264.148</v>
       </c>
       <c r="AG35" t="n" s="10">
-        <v>299.631</v>
+        <v>302.555</v>
       </c>
     </row>
     <row r="36">
@@ -4072,7 +4072,7 @@
         <v>167.363</v>
       </c>
       <c r="AG36" t="n" s="10">
-        <v>220.551</v>
+        <v>218.151</v>
       </c>
     </row>
     <row r="37">
@@ -4117,7 +4117,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:38:56&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:45:34&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - Exports and imports years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Exports and imports years.xlsx
@@ -177,7 +177,7 @@
     <t xml:space="preserve">  index".</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:45:29</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 05:35:43</t>
   </si>
 </sst>
 </file>
@@ -4117,7 +4117,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:45:34&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 05:35:48&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>